--- a/experiment result cnn/8192_0.5_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/8192_0.5_40_zs50_kappa_lp.xlsx
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003006897254158546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009675499872239738</v>
+        <v>0.0001601279998358976</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001673306459766803</v>
+        <v>0.004502497953753641</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0002000858456592193</v>
+        <v>0.0008636978620668355</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.000199979985996e-05</v>
+        <v>0.0001200359999896718</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0002001999594308452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.004592260492023562</v>
+        <v>0.0008224899395424661</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09505088756620124</v>
+        <v>0.00454389874354172</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0003402179738488406</v>
+        <v>0.0007009979933011078</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001400979900753641</v>
+        <v>0.01027304912418192</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.000360263999671155</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003124193101053174</v>
+        <v>0.001222789954925068</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0009431123271503993</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0136565699867591</v>
+        <v>0.001794807774006352</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.007990181534731253</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0002602498534845863</v>
+        <v>0.0005007459956896417</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0001000399953783613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0002001959221036039</v>
+        <v>0.001004803767137046</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0001600959579932491</v>
+        <v>0.003427754797304955</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0005609174228930183</v>
+        <v>0.003707504529904859</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05319525718116613</v>
+        <v>0.00277752351760432</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001247422027140522</v>
+        <v>0.05794334456866712</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001285382585861857</v>
+        <v>0.001591860572057289</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.0128039753839607</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.008487602453834186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006200277013784409</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0005213086034998378</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003202559252070215</v>
+        <v>0.02678108709269938</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007906343327655985</v>
+        <v>0.002248715664634996</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0001400579690955075</v>
+        <v>0.001023477885939494</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001045331692500387</v>
+        <v>0.003623326390017808</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0001400579690955075</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04680323001316702</v>
+        <v>0.00433930872400491</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05449874671922822</v>
+        <v>0.0005212519842966397</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.004788885351759593</v>
+        <v>0.01132297480110674</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.002396713810582e-05</v>
+        <v>0.008643112035212463</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01734910515470833</v>
+        <v>0.01195388936876447</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0007422650186543792</v>
+        <v>0.0006604859990627325</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007206163474192985</v>
+        <v>0.0332331267599795</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00614556529198821</v>
+        <v>0.08208088059383692</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.000400039999999e-05</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008595791618698501</v>
+        <v>0.005327903611734118</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.0008636978620668355</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0002802157614402976</v>
+        <v>0.02076426691715725</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07317646287270321</v>
+        <v>0.0001800419999948373</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002502024774393054</v>
+        <v>0.0006009359934096062</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0007611432868993486</v>
+        <v>0.003422524573905906</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0006811439414595654</v>
+        <v>0.001794807774006352</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.003429295394732818</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001200539498244846</v>
+        <v>0.09848219500610528</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0006808350176003451</v>
+        <v>0.01920171506896847</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008118077213752666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01174260254111533</v>
+        <v>0.02478693357655669</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05921153317148168</v>
+        <v>0.01037228969003648</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005208230128579581</v>
+        <v>0.01716868931122427</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008898111293549133</v>
+        <v>0.004304931271535605</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.000460806753278994</v>
+        <v>0.05068148615113768</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00175395190006417</v>
+        <v>0.001041859974994878</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0007023949139465477</v>
+        <v>0.001545237864005085</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.003199357822132e-05</v>
+        <v>0.0792741664703481</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01246123605802163</v>
+        <v>0.001043659874318057</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.002011329220551239</v>
+        <v>0.001181981977789155</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07492477768200242</v>
+        <v>0.01962263806514026</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0776370382040389</v>
+        <v>0.0007611479932160767</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02685976159812705</v>
+        <v>0.07259322071224009</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05782023163251</v>
+        <v>0.1266860031625933</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.003945891183192844</v>
+        <v>0.02270659744535528</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06296642419144573</v>
+        <v>0.09908656644710048</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0002201659017276513</v>
+        <v>0.02452455248832746</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0006419190378722957</v>
+        <v>0.001305897656169834</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.000599639675871e-05</v>
+        <v>0.0001200279999960778</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01313785649999095</v>
+        <v>0.0660500698339824</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00148606602964409</v>
+        <v>0.003458610321752417</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04438866490540114</v>
+        <v>0.06289691917431287</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01463835553940709</v>
+        <v>0.0001800819999647268</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00250038972091737</v>
+        <v>0.001104133834456819</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02494653796988781</v>
+        <v>0.01035859596123894</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001263509766620006</v>
+        <v>0.1168866789801015</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.013228654549667</v>
+        <v>0.04001356845031567</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006591992402411743</v>
+        <v>0.001998438536757175</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0008820293217286519</v>
+        <v>0.0004004639984071491</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003589877166878039</v>
+        <v>0.0218038261658026</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01149918059158084</v>
+        <v>0.01489824517567745</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0005610262253055228</v>
+        <v>0.05624497510339679</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00364273029907546</v>
+        <v>0.006297701971097064</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0003604239526131948</v>
+        <v>0.2338998251004361</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02635697862320174</v>
+        <v>0.02548947134516623</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.005876199700270436</v>
+        <v>0.02070741373287136</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01923363838051889</v>
+        <v>0.0009617959777842571</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.106243610161377</v>
+        <v>0.0149537491911075</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0006621739777793634</v>
+        <v>0.005562929592041382</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01192896309652447</v>
+        <v>0.06581191460288052</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003344741878147665</v>
+        <v>0.1131180112236803</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1073835273140751</v>
+        <v>0.009947616638930614</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02187510715208287</v>
+        <v>0.004314843063799773</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001000339933780813</v>
+        <v>0.04859161127126602</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.06019485534542966</v>
+        <v>0.06967125156570764</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0004006510803490966</v>
+        <v>0.01848134259238096</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04429879295939069</v>
+        <v>0.1460578806134156</v>
       </c>
     </row>
   </sheetData>
